--- a/output/raw_data/cpi_HK_yearly.xlsx
+++ b/output/raw_data/cpi_HK_yearly.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,6 +610,17 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B21">
+        <v>1.1</v>
+      </c>
+      <c r="C21">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
